--- a/biology/Zoologie/Arachnothera/Arachnothera.xlsx
+++ b/biology/Zoologie/Arachnothera/Arachnothera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Arachnothera regroupe treize espèces d'oiseaux appartenant à la famille des Nectariniidae. Arachnothère est le nom français que la nomenclature aviaire en langue française (mise à jour) a donné à ces espèces d'oiseaux.
 Le genre regroupe des oiseaux appartenant à une famille qui comprend notamment des souimangas. 
 Leur nom latin indique partiellement leur comportement alimentaire : « chasseur d'araignées », ils mangent certes des arachnides mais ils sont surtout insectivores et ils boivent aussi du nectar. 
 Ils vivent dans les zones forestières d'Asie tropicale du Sud-Est. Le nid est en forme de coupe. 
-Ils peuvent mesurer de 15 à 20 cm de long et ont un bec très long et courbe[1]. Contrairement aux autres membres de la famille des Nectariniidae, il n'y a pas de dimorphisme sexuel et ces oiseaux portent un plumage assez terne composé de brun, de gris, de jaunâtre et d'olive.
+Ils peuvent mesurer de 15 à 20 cm de long et ont un bec très long et courbe. Contrairement aux autres membres de la famille des Nectariniidae, il n'y a pas de dimorphisme sexuel et ces oiseaux portent un plumage assez terne composé de brun, de gris, de jaunâtre et d'olive.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 2.10, 2011) du Congrès ornithologique international (par ordre phylogénique) :
 Arachnothera longirostra – Petit Arachnothère
